--- a/sequences/14_localizer.xlsx
+++ b/sequences/14_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
     <t>face/face004.png</t>
   </si>
   <si>
-    <t>dog/dog000.png</t>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
   </si>
   <si>
     <t>face/face006.png</t>
   </si>
   <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
     <t>dog/dog012.png</t>
   </si>
   <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
   </si>
   <si>
     <t>dog/dog013.png</t>
   </si>
   <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
   </si>
   <si>
     <t>face/face030.png</t>
   </si>
   <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
     <t>flower/flower020.png</t>
   </si>
   <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
     <t>face/face029.png</t>
   </si>
   <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
   </si>
   <si>
     <t>car/car043.png</t>
   </si>
   <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
   </si>
   <si>
     <t>car/car045.png</t>
   </si>
   <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
   </si>
   <si>
     <t>face/face056.png</t>
   </si>
   <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
     <t>flower/flower061.png</t>
   </si>
   <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
     <t>flower/flower050.png</t>
   </si>
   <si>
-    <t>car/car052.png</t>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
   </si>
   <si>
     <t>dog/dog048.png</t>
   </si>
   <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
   </si>
   <si>
     <t>flower/flower053.png</t>
   </si>
   <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
   </si>
   <si>
     <t>car/car060.png</t>
   </si>
   <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
+    <t>flower/flower062.png</t>
   </si>
   <si>
     <t>flower/flower048.png</t>
   </si>
   <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
     <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.493192059070346</v>
+        <v>1.708682386200656</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.663584216880367</v>
+        <v>1.573327896948774</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.50814526205036</v>
+        <v>1.420447757179292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.439818088912937</v>
+        <v>1.486286276728861</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.362727412244291</v>
+        <v>1.609086453967763</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.278835098946433</v>
+        <v>1.565778983825159</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.687828821369101</v>
+        <v>1.880066082137767</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.398050863114558</v>
+        <v>1.230974976370351</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.324346985655211</v>
+        <v>1.435367817417482</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.338732164867708</v>
+        <v>1.463046854256331</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.520636920314449</v>
+        <v>1.386947316706402</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.457531633028557</v>
+        <v>1.270053807069638</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.409353865424039</v>
+        <v>1.609040558488577</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.677208701052141</v>
+        <v>1.352087259660568</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.549634132638182</v>
+        <v>1.413127927021365</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.448279116551651</v>
+        <v>1.591728369734473</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.633569329340571</v>
+        <v>1.52110314087017</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.334403969955931</v>
+        <v>1.419798242035809</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.451585965055988</v>
+        <v>1.65494083952581</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.735624559565589</v>
+        <v>1.504278430593709</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.452428121014402</v>
+        <v>1.461783668373506</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.562234942182092</v>
+        <v>1.320891120029975</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.516009306873391</v>
+        <v>1.528820581123193</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.657445653706838</v>
+        <v>1.362126994204629</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.899950858809171</v>
+        <v>1.322222021089503</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.653282681915841</v>
+        <v>1.676592402994506</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.551501402674066</v>
+        <v>1.465613483952311</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.576754176215698</v>
+        <v>1.403739535904887</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.444853298701685</v>
+        <v>1.383874109793341</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.55116080418123</v>
+        <v>1.373592882555479</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.238078266684132</v>
+        <v>1.570257201834291</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.533908820567436</v>
+        <v>1.740841010460031</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.339385640557425</v>
+        <v>1.576115805431832</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.434465899811247</v>
+        <v>1.4451629872769</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.272408382410525</v>
+        <v>1.678200455263197</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.662346214236311</v>
+        <v>1.597709028249989</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.486467157175399</v>
+        <v>1.532827769187625</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.619918685057081</v>
+        <v>1.401079091068095</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.459544809838909</v>
+        <v>1.531571735031172</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.516222223820778</v>
+        <v>1.47384368368599</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.490901754936163</v>
+        <v>1.598551459741107</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.675910335389374</v>
+        <v>1.776609641658538</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.454250391884598</v>
+        <v>1.489707267798682</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.570623470700814</v>
+        <v>1.360983079777154</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.565733168178215</v>
+        <v>1.665553336081811</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.445662224263504</v>
+        <v>1.325210750442534</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.226545313325088</v>
+        <v>1.526782762706277</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.351361964243205</v>
+        <v>1.288442327226083</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.495862533387455</v>
+        <v>1.391396837807286</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.227661261845285</v>
+        <v>1.492793628760567</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.361562709942685</v>
+        <v>1.537254883923404</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.628065293574373</v>
+        <v>1.411114310352733</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.375604583051264</v>
+        <v>1.262469528255676</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.373890800834189</v>
+        <v>1.737680836713636</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.317698991970275</v>
+        <v>1.484768775552386</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.659182582572714</v>
+        <v>1.266752007303138</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.719787611850124</v>
+        <v>1.325346059718227</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.352992111850059</v>
+        <v>1.543856415504896</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.617129577825044</v>
+        <v>1.40802271416075</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.551940611673871</v>
+        <v>1.588747356380645</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.488436310594492</v>
+        <v>1.340690022335312</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.521532710373375</v>
+        <v>1.46803544517599</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.634248250035886</v>
+        <v>1.554475453469596</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.46766889389258</v>
+        <v>1.361421868845847</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.568365197170065</v>
+        <v>1.590186967937023</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.426525963477811</v>
+        <v>1.686984106009007</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.785100111506265</v>
+        <v>1.563587893259242</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.713566489604148</v>
+        <v>1.546734456996159</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1.359609495398739</v>
+        <v>1.521366643062147</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.307715185537341</v>
+        <v>1.475691120345199</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.682220295012856</v>
+        <v>1.465001718904904</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.47001729075013</v>
+        <v>1.528837379957905</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.32620028795435</v>
+        <v>1.70518610140184</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.599122868211773</v>
+        <v>1.534631219730095</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.558086713432265</v>
+        <v>1.082602022826286</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.593097776665542</v>
+        <v>1.561794802190439</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.468635703447642</v>
+        <v>1.356095253491972</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.435016460615302</v>
+        <v>1.652565014818442</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.519988686670793</v>
+        <v>1.512029492150476</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.507722447683013</v>
+        <v>1.472235958187055</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.024832607033523</v>
+        <v>1.435922706777993</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.226071111199442</v>
+        <v>1.582263296183408</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.367757089266704</v>
+        <v>1.352899997129051</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.438473952591376</v>
+        <v>1.470000175430294</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.498567029240259</v>
+        <v>1.550485781519865</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.447292513475496</v>
+        <v>1.47656715238248</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.329085608992989</v>
+        <v>1.513394090545158</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.299724291167155</v>
+        <v>1.413082804472498</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.413994348907552</v>
+        <v>1.555252080445451</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.208500436388215</v>
+        <v>1.397900110892939</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.461015455778821</v>
+        <v>1.390972750673851</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.801011138748727</v>
+        <v>1.600507500952961</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.787872551048965</v>
+        <v>1.75426883895501</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.665948630523991</v>
+        <v>1.390713505374413</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.375897742031824</v>
+        <v>1.465739109739454</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.13929819742883</v>
+        <v>1.457540782948903</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.265129506523316</v>
+        <v>1.283693543803079</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.430612515265169</v>
+        <v>1.321246313042697</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.520499835379665</v>
+        <v>1.697495163616981</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.534121762063613</v>
+        <v>1.601331430452031</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.440094296771837</v>
+        <v>1.469831365724626</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.475918974108759</v>
+        <v>1.402429183794557</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.596236468046405</v>
+        <v>1.793855584127564</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.440181996989415</v>
+        <v>1.637201333912998</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.394460110930884</v>
+        <v>1.347522032597785</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.409843001416007</v>
+        <v>1.391707082364531</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.523822197418151</v>
+        <v>1.41696597338599</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.378123241581737</v>
+        <v>1.525748676567981</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.633732038598979</v>
+        <v>1.800894734764335</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.377856386761991</v>
+        <v>1.425111634551274</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.538622712224002</v>
+        <v>1.599238906256706</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.619116084733847</v>
+        <v>1.739445311799442</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.415927101725061</v>
+        <v>1.483686793149792</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.46933839280655</v>
+        <v>1.329736629542655</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.251553453117117</v>
+        <v>1.676460830568451</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.447017232431567</v>
+        <v>1.456915841544043</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.548195991004722</v>
+        <v>1.528351032046976</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.660877438189015</v>
+        <v>1.593967181608644</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.286483595620925</v>
+        <v>1.425167589600056</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.393478751025396</v>
+        <v>1.802752413237475</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.575133415787157</v>
+        <v>1.347042631820455</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.572909126973995</v>
+        <v>1.401828775644171</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.598916516238849</v>
+        <v>1.480392993650147</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.738291731548649</v>
+        <v>1.449425230382245</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.701489466961546</v>
+        <v>1.388130316676096</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.667901728315103</v>
+        <v>1.484505782707032</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.445854114767783</v>
+        <v>1.765720092234656</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.416689636100113</v>
+        <v>1.371469169858202</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.49082132032962</v>
+        <v>1.609147819208355</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.513154854562069</v>
+        <v>1.526885147176705</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.907409529147076</v>
+        <v>1.000699884520831</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.708085597547421</v>
+        <v>1.555103221084975</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.223927262741872</v>
+        <v>1.471725156465114</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.356137106765559</v>
+        <v>1.536489681287875</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.480750297924018</v>
+        <v>1.371579641782599</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.403983696937036</v>
+        <v>1.777425320332249</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.325095388572114</v>
+        <v>1.527850184934663</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.575542747437398</v>
+        <v>1.464767666931889</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.548277743000181</v>
+        <v>1.48361535689571</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.340160121474909</v>
+        <v>1.563766179705868</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.744830496657051</v>
+        <v>1.511493525674857</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.571311851824634</v>
+        <v>1.58467031263094</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.255195869291551</v>
+        <v>1.561796528749874</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.768226772155491</v>
+        <v>1.478209613393887</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.48795877196217</v>
+        <v>1.558184046150642</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.454102424130987</v>
+        <v>1.462251207771346</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.749804946254943</v>
+        <v>1.319225320260753</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.572847603113943</v>
+        <v>1.5084631230298</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.511271648657704</v>
+        <v>1.622254917159721</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.698362872593624</v>
+        <v>1.615846684012866</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.282066977790592</v>
+        <v>1.394940916442142</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.413149857872767</v>
+        <v>1.178266955691598</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.422269248918459</v>
+        <v>1.585031518143205</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.685895912776898</v>
+        <v>1.275366477403178</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.693742182947978</v>
+        <v>1.530754372357662</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.475041702368172</v>
+        <v>1.427535778676883</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.515139815192044</v>
+        <v>1.619628313343433</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.349178948329149</v>
+        <v>1.564296722523413</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.219625525983619</v>
+        <v>1.76014926028414</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.204475095269809</v>
+        <v>1.73223867930798</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.252724774586407</v>
+        <v>1.371516206282859</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.728891218073915</v>
+        <v>1.439029729340469</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.499355018905174</v>
+        <v>1.816804704460112</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.276871096719299</v>
+        <v>1.382897202318602</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.254688897059263</v>
+        <v>1.449403085001396</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.804579250148107</v>
+        <v>1.589215486954339</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.532771217714064</v>
+        <v>1.374365106114486</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.563154073284274</v>
+        <v>1.309891420897151</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.510490174287483</v>
+        <v>1.496335543064962</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.533573782747686</v>
+        <v>1.44068014646032</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.477513751928512</v>
+        <v>1.415488053651143</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.632054667713895</v>
+        <v>1.388307256106368</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.428008737574363</v>
+        <v>1.704145267517275</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.517070121736027</v>
+        <v>1.417930629383613</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.535012851615061</v>
+        <v>1.664727724583764</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.393513456835273</v>
+        <v>1.27923399110398</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.503102722850031</v>
+        <v>1.551974289566787</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.573868728856805</v>
+        <v>1.517284982508504</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.872979292662707</v>
+        <v>1.496062493994181</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.669316749176512</v>
+        <v>1.462451562060569</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.155930778487935</v>
+        <v>1.458866730175218</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.376641805998802</v>
+        <v>1.667514202497298</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.753964615058168</v>
+        <v>1.441556733162397</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.398721731745771</v>
+        <v>1.448183304370438</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.590931967079076</v>
+        <v>1.632659601257358</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.481337032854587</v>
+        <v>1.567863456961847</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.598151487903701</v>
+        <v>1.450357715801202</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.496288766417653</v>
+        <v>1.530000854401405</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.656834991904272</v>
+        <v>1.559305382139174</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.321140069407852</v>
+        <v>1.41399250548001</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.438526944816273</v>
+        <v>1.734369982126578</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.507342694080636</v>
+        <v>1.433344951471906</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.466918937080855</v>
+        <v>1.335308530817842</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.311727372043414</v>
+        <v>1.504840780961457</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.741360932226584</v>
+        <v>1.239030269953653</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.675350164247277</v>
+        <v>1.410682280535287</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.280262084149488</v>
+        <v>1.420286237948277</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.659469796557778</v>
+        <v>1.49800994568269</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.448674564799258</v>
+        <v>1.562926132854467</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.523739974848748</v>
+        <v>1.563486134951423</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.611765260135777</v>
+        <v>1.468019710265899</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.466807779190273</v>
+        <v>1.601321118665842</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.560355047706058</v>
+        <v>1.374233997512766</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.566511667383324</v>
+        <v>1.548460616047256</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.621345012622346</v>
+        <v>1.442007304975334</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.429535778415007</v>
+        <v>1.62933000261988</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.476342063164106</v>
+        <v>1.577533024716484</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.627039208816667</v>
+        <v>1.463708893753499</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.519175536340226</v>
+        <v>1.574800886470036</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.603243443496793</v>
+        <v>1.472146052043249</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.588025668781209</v>
+        <v>1.680950191296784</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.400669805691397</v>
+        <v>1.223469590099282</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.649292683368919</v>
+        <v>1.585902825727066</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.443163842802322</v>
+        <v>1.506951454772026</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.244777049974144</v>
+        <v>1.666360060345002</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.275125679692864</v>
+        <v>1.718503662213689</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.305892523355551</v>
+        <v>1.590780838244489</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.493045516941859</v>
+        <v>1.484927472578568</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.67894425836534</v>
+        <v>1.306596618031528</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.485692055879308</v>
+        <v>1.501057372443803</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.356138567774912</v>
+        <v>1.387972876378721</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.331989380032971</v>
+        <v>1.418116024176453</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.478590737948503</v>
+        <v>1.435063349806383</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.507241223783645</v>
+        <v>1.432539937575629</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.395349945765614</v>
+        <v>1.224009826579849</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.627438875087388</v>
+        <v>1.480460240296755</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.503693740094476</v>
+        <v>1.667567194112479</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.270746078992849</v>
+        <v>1.435071324832991</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.430827717128566</v>
+        <v>1.692996928189406</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.555348524013486</v>
+        <v>1.623680242606971</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.607273179113843</v>
+        <v>1.36808799207281</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.852197339264426</v>
+        <v>1.211686030159352</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.540275073557186</v>
+        <v>1.508025095463821</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.632523966382851</v>
+        <v>1.777472508335716</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>1.346971321299425</v>
+        <v>1.634327033950408</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.497098796096034</v>
+        <v>1.783504401497781</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.642228273516697</v>
+        <v>1.33372386997398</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.136077521519975</v>
+        <v>1.522880149626519</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.4192584643203</v>
+        <v>1.560319784502301</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.261610205527449</v>
+        <v>1.416565801583811</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.709941195389534</v>
+        <v>1.514660532939437</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.327404135620314</v>
+        <v>1.372606160373799</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.312402463981043</v>
+        <v>1.589332417325121</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.659480343168687</v>
+        <v>1.525752405371092</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.265918365738253</v>
+        <v>1.585364873489647</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.34179578661793</v>
+        <v>1.471514153174888</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.274967252444337</v>
+        <v>1.615216214695045</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.417370272182214</v>
+        <v>1.583336175421759</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.353844244508666</v>
+        <v>1.408499684253782</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.506795570216988</v>
+        <v>1.466646268467142</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.748652478953635</v>
+        <v>1.561583121163101</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.50380019264711</v>
+        <v>1.570274433904955</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.437427616439693</v>
+        <v>1.650987683790458</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.347836900252787</v>
+        <v>1.535082559297809</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.442461637474903</v>
+        <v>1.395661431886467</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.723858523828118</v>
+        <v>1.671114379876982</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/14_localizer.xlsx
+++ b/sequences/14_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.708682386200656</v>
+        <v>1.599833895005666</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.573327896948774</v>
+        <v>1.436687940128246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.420447757179292</v>
+        <v>1.270640109778352</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.486286276728861</v>
+        <v>1.296293146221718</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.609086453967763</v>
+        <v>1.439350267242448</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.565778983825159</v>
+        <v>1.522849455637254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.880066082137767</v>
+        <v>1.436963844887494</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.230974976370351</v>
+        <v>1.650188814578649</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.435367817417482</v>
+        <v>1.608027343584237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.463046854256331</v>
+        <v>1.498817850411958</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.386947316706402</v>
+        <v>1.374772638539731</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.270053807069638</v>
+        <v>1.363615253698735</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.609040558488577</v>
+        <v>1.314333697448997</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.352087259660568</v>
+        <v>1.492333453362156</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.413127927021365</v>
+        <v>1.358346009564051</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.591728369734473</v>
+        <v>1.570158656229279</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.52110314087017</v>
+        <v>1.664453815048852</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.419798242035809</v>
+        <v>1.326499875244744</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.65494083952581</v>
+        <v>1.523526983598087</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.504278430593709</v>
+        <v>1.428969638671668</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.461783668373506</v>
+        <v>1.482536922153323</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.320891120029975</v>
+        <v>1.295164190381766</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.528820581123193</v>
+        <v>1.423727024691471</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.362126994204629</v>
+        <v>1.390240728670343</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.322222021089503</v>
+        <v>1.597743880420827</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.676592402994506</v>
+        <v>1.284027819263371</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.465613483952311</v>
+        <v>1.906774353632755</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.403739535904887</v>
+        <v>1.13146827195387</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.383874109793341</v>
+        <v>1.604950589077264</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.373592882555479</v>
+        <v>1.546787454122704</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1.570257201834291</v>
+        <v>1.566658768496509</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.740841010460031</v>
+        <v>1.333696940792684</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.576115805431832</v>
+        <v>1.357693522636058</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.4451629872769</v>
+        <v>1.483217167941832</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.678200455263197</v>
+        <v>1.65718100441703</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1.597709028249989</v>
+        <v>1.482800286067825</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.532827769187625</v>
+        <v>1.367538218720905</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.401079091068095</v>
+        <v>1.476652223851693</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.531571735031172</v>
+        <v>1.515270294194597</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.47384368368599</v>
+        <v>1.280376696921338</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.598551459741107</v>
+        <v>1.627281052171863</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.776609641658538</v>
+        <v>1.531545162258581</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.489707267798682</v>
+        <v>1.418006002709533</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.360983079777154</v>
+        <v>1.460291541739435</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.665553336081811</v>
+        <v>1.673460140513626</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.325210750442534</v>
+        <v>1.530994999758302</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.526782762706277</v>
+        <v>1.558756814990968</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.288442327226083</v>
+        <v>1.591204261660616</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.391396837807286</v>
+        <v>1.517354405425404</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.492793628760567</v>
+        <v>1.613258491533231</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.537254883923404</v>
+        <v>1.376255303050435</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.411114310352733</v>
+        <v>1.731290297848616</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.262469528255676</v>
+        <v>1.48204382908862</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.737680836713636</v>
+        <v>1.212329309617566</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.484768775552386</v>
+        <v>1.534828780701878</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.266752007303138</v>
+        <v>1.21283543821583</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.325346059718227</v>
+        <v>1.413044049895163</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.543856415504896</v>
+        <v>1.650065068645898</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.40802271416075</v>
+        <v>1.772775411887457</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.588747356380645</v>
+        <v>1.279448414151561</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.340690022335312</v>
+        <v>1.470753352315312</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.46803544517599</v>
+        <v>1.565245069393555</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.554475453469596</v>
+        <v>1.207221947671107</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.361421868845847</v>
+        <v>1.675422151597431</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.590186967937023</v>
+        <v>1.630562011296397</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1.686984106009007</v>
+        <v>1.51608055031703</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.563587893259242</v>
+        <v>1.416678445561443</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.546734456996159</v>
+        <v>1.372531121838023</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.521366643062147</v>
+        <v>1.541071991653482</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.475691120345199</v>
+        <v>1.536358140849711</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.465001718904904</v>
+        <v>1.604078317868606</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.528837379957905</v>
+        <v>1.388094066095371</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.70518610140184</v>
+        <v>1.515747049193345</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.534631219730095</v>
+        <v>1.421442020844612</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.082602022826286</v>
+        <v>1.839492758023052</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.561794802190439</v>
+        <v>1.548224285404309</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.356095253491972</v>
+        <v>1.483313996309487</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.652565014818442</v>
+        <v>1.450532270130585</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.512029492150476</v>
+        <v>1.490575358117188</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.472235958187055</v>
+        <v>1.538938473441183</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.435922706777993</v>
+        <v>1.539410859033663</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.582263296183408</v>
+        <v>1.571316121821593</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.352899997129051</v>
+        <v>1.357936112399952</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.470000175430294</v>
+        <v>1.366193328213638</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.550485781519865</v>
+        <v>1.411151865895342</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.47656715238248</v>
+        <v>1.340466266296854</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.513394090545158</v>
+        <v>1.622643373114186</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.413082804472498</v>
+        <v>1.494233603903891</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.555252080445451</v>
+        <v>1.496508950172942</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.397900110892939</v>
+        <v>1.363749622013497</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.390972750673851</v>
+        <v>1.362274011562191</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.600507500952961</v>
+        <v>1.397065197994153</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.75426883895501</v>
+        <v>1.251943178799241</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.390713505374413</v>
+        <v>1.686195002119402</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.465739109739454</v>
+        <v>1.501801816933955</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.457540782948903</v>
+        <v>1.422001791903917</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.283693543803079</v>
+        <v>1.453549044370073</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.321246313042697</v>
+        <v>1.554579836363988</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.697495163616981</v>
+        <v>1.698205552772906</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.601331430452031</v>
+        <v>1.578695788376778</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.469831365724626</v>
+        <v>1.407116394535106</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.402429183794557</v>
+        <v>1.296752845105519</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.793855584127564</v>
+        <v>1.562472898742349</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.637201333912998</v>
+        <v>1.334127984433565</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.347522032597785</v>
+        <v>1.62447693177108</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.391707082364531</v>
+        <v>1.343321650069139</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.41696597338599</v>
+        <v>1.483554201962641</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.525748676567981</v>
+        <v>1.455573216093651</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.800894734764335</v>
+        <v>1.395487249192531</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.425111634551274</v>
+        <v>1.543090286836653</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.599238906256706</v>
+        <v>1.446916071034821</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.739445311799442</v>
+        <v>1.387753935425296</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.483686793149792</v>
+        <v>1.135199884953848</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.329736629542655</v>
+        <v>1.333930877105</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.676460830568451</v>
+        <v>1.626304599206178</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.456915841544043</v>
+        <v>1.221935762559014</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.528351032046976</v>
+        <v>1.354428363231792</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.593967181608644</v>
+        <v>1.329743873062421</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.425167589600056</v>
+        <v>1.612437141808282</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.802752413237475</v>
+        <v>1.666029465083663</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.347042631820455</v>
+        <v>1.36037178964327</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.401828775644171</v>
+        <v>1.519194160586017</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.480392993650147</v>
+        <v>1.254190748127906</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.449425230382245</v>
+        <v>1.533599685643262</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.388130316676096</v>
+        <v>1.862936199790366</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.484505782707032</v>
+        <v>1.72441744239377</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.765720092234656</v>
+        <v>1.204464161216421</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.371469169858202</v>
+        <v>1.663093070451075</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.609147819208355</v>
+        <v>1.367486681779119</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.526885147176705</v>
+        <v>1.706185324821155</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.000699884520831</v>
+        <v>1.583707611388475</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.555103221084975</v>
+        <v>1.222105729280112</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.471725156465114</v>
+        <v>1.5983672745272</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.536489681287875</v>
+        <v>1.368959750253352</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.371579641782599</v>
+        <v>1.614710389876642</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.777425320332249</v>
+        <v>1.475287923123948</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.527850184934663</v>
+        <v>1.572682511526627</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.464767666931889</v>
+        <v>1.691602991685028</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.48361535689571</v>
+        <v>1.465346197468344</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.563766179705868</v>
+        <v>1.375288257362353</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.511493525674857</v>
+        <v>1.307330311662507</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.58467031263094</v>
+        <v>1.780531596308292</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.561796528749874</v>
+        <v>1.472520177177768</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.478209613393887</v>
+        <v>1.594087372416616</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.558184046150642</v>
+        <v>1.477327499567621</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.462251207771346</v>
+        <v>1.525908193077239</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.319225320260753</v>
+        <v>1.713806746914826</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.5084631230298</v>
+        <v>1.600162617456367</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.622254917159721</v>
+        <v>1.429260944063864</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.615846684012866</v>
+        <v>1.586175087722683</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.394940916442142</v>
+        <v>1.191833146931641</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.178266955691598</v>
+        <v>1.286209105380223</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.585031518143205</v>
+        <v>1.458765331623541</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.275366477403178</v>
+        <v>1.234619206609111</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.530754372357662</v>
+        <v>1.382989636922487</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.427535778676883</v>
+        <v>1.505890336473937</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.619628313343433</v>
+        <v>1.489996475693257</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.564296722523413</v>
+        <v>1.596974998297871</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.76014926028414</v>
+        <v>1.390439657075402</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.73223867930798</v>
+        <v>1.646346657495764</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.371516206282859</v>
+        <v>1.293161517859774</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.439029729340469</v>
+        <v>1.273090731059231</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.816804704460112</v>
+        <v>1.346520995641127</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.382897202318602</v>
+        <v>1.524167595545088</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.449403085001396</v>
+        <v>1.665287898132465</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.589215486954339</v>
+        <v>1.449160666409397</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.374365106114486</v>
+        <v>1.451425639930089</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.309891420897151</v>
+        <v>1.478672555162567</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.496335543064962</v>
+        <v>1.736832583550927</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.44068014646032</v>
+        <v>1.570025211667744</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.415488053651143</v>
+        <v>1.635028941609384</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.388307256106368</v>
+        <v>1.705372366544892</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.704145267517275</v>
+        <v>1.458867753726891</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.417930629383613</v>
+        <v>1.673669820765573</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.664727724583764</v>
+        <v>1.598843333960602</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.27923399110398</v>
+        <v>1.509255533279522</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.551974289566787</v>
+        <v>1.713531441920278</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.517284982508504</v>
+        <v>1.388831007387609</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.496062493994181</v>
+        <v>1.308190026323572</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.462451562060569</v>
+        <v>1.486515528423648</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.458866730175218</v>
+        <v>1.644923813394809</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.667514202497298</v>
+        <v>1.533797687936006</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.441556733162397</v>
+        <v>1.649287145410703</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.448183304370438</v>
+        <v>1.954621617637408</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.632659601257358</v>
+        <v>1.488265301362748</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.567863456961847</v>
+        <v>1.504073344990033</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.450357715801202</v>
+        <v>1.479434554831787</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.530000854401405</v>
+        <v>1.604321785471622</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.559305382139174</v>
+        <v>1.436446428845507</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>1.41399250548001</v>
+        <v>1.351685995483692</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.734369982126578</v>
+        <v>1.350433072008521</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.433344951471906</v>
+        <v>1.464209627067675</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.335308530817842</v>
+        <v>1.656543704251944</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.504840780961457</v>
+        <v>1.356241997567595</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.239030269953653</v>
+        <v>1.653991774021466</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.410682280535287</v>
+        <v>1.66296982035844</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.420286237948277</v>
+        <v>1.298568305557703</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.49800994568269</v>
+        <v>1.282775961817039</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.562926132854467</v>
+        <v>1.576241885426839</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.563486134951423</v>
+        <v>1.340226453163694</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.468019710265899</v>
+        <v>1.338793904051509</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.601321118665842</v>
+        <v>1.664410569915091</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.374233997512766</v>
+        <v>1.372669002623596</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.548460616047256</v>
+        <v>1.193462825096849</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.442007304975334</v>
+        <v>1.264758582378146</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.62933000261988</v>
+        <v>1.413084193197172</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.577533024716484</v>
+        <v>1.524450870033071</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.463708893753499</v>
+        <v>1.670834892327866</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.574800886470036</v>
+        <v>1.587738007095305</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.472146052043249</v>
+        <v>1.478344865950009</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.680950191296784</v>
+        <v>1.359245329170226</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.223469590099282</v>
+        <v>1.490157794720341</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.585902825727066</v>
+        <v>1.802651909308821</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.506951454772026</v>
+        <v>1.909448414068111</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.666360060345002</v>
+        <v>1.853664334303537</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.718503662213689</v>
+        <v>1.526408743086439</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.590780838244489</v>
+        <v>1.4980650646341</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.484927472578568</v>
+        <v>1.455978375111235</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.306596618031528</v>
+        <v>1.304754349089505</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.501057372443803</v>
+        <v>1.206023171857622</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.387972876378721</v>
+        <v>1.266812578617894</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.418116024176453</v>
+        <v>1.309534446582014</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.435063349806383</v>
+        <v>1.288531645479348</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.432539937575629</v>
+        <v>1.903338756236962</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.224009826579849</v>
+        <v>1.451837076151858</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.480460240296755</v>
+        <v>1.384115279196348</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.667567194112479</v>
+        <v>1.512653169316381</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.435071324832991</v>
+        <v>1.664740859265096</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.692996928189406</v>
+        <v>1.555485215757519</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>1.623680242606971</v>
+        <v>1.426407525210342</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.36808799207281</v>
+        <v>1.233229965977242</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.211686030159352</v>
+        <v>1.325677461730661</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.508025095463821</v>
+        <v>1.466378380449769</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.777472508335716</v>
+        <v>1.379441451668245</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.634327033950408</v>
+        <v>1.608712367895934</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.783504401497781</v>
+        <v>1.409745308382809</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.33372386997398</v>
+        <v>1.390102406059316</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.522880149626519</v>
+        <v>1.456291221522639</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.560319784502301</v>
+        <v>1.359111533968902</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.416565801583811</v>
+        <v>1.444671559306943</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.514660532939437</v>
+        <v>1.524050567439461</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.372606160373799</v>
+        <v>1.622753799099373</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.589332417325121</v>
+        <v>1.390936849986687</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.525752405371092</v>
+        <v>1.45370196668803</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.585364873489647</v>
+        <v>1.456598431294104</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.471514153174888</v>
+        <v>1.594517891428788</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.615216214695045</v>
+        <v>1.368303213063404</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.583336175421759</v>
+        <v>1.334098938168639</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.408499684253782</v>
+        <v>1.595719987783659</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.466646268467142</v>
+        <v>1.604224822735094</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.561583121163101</v>
+        <v>1.617908441710595</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.570274433904955</v>
+        <v>1.503903272946135</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.650987683790458</v>
+        <v>1.401699332427976</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.535082559297809</v>
+        <v>1.637976488399167</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.395661431886467</v>
+        <v>1.673744934847604</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.671114379876982</v>
+        <v>1.428509617704147</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/14_localizer.xlsx
+++ b/sequences/14_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>dog/dog060.jpg</t>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
   </si>
   <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
   </si>
   <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.599833895005666</v>
+        <v>1.493440401782044</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.436687940128246</v>
+        <v>1.448567795354149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.270640109778352</v>
+        <v>1.622151061496097</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.296293146221718</v>
+        <v>1.897444786903322</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.439350267242448</v>
+        <v>1.687205842222832</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.522849455637254</v>
+        <v>1.334231409584837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.436963844887494</v>
+        <v>1.533154439037246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.650188814578649</v>
+        <v>1.842802825750471</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.608027343584237</v>
+        <v>1.702641509973909</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.498817850411958</v>
+        <v>1.439502759475322</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.374772638539731</v>
+        <v>1.587584735439294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.363615253698735</v>
+        <v>1.24141603433684</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.314333697448997</v>
+        <v>1.382463197507808</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.492333453362156</v>
+        <v>1.616545584025247</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.358346009564051</v>
+        <v>1.42742999797675</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.570158656229279</v>
+        <v>1.160379297520736</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.664453815048852</v>
+        <v>1.602087070624526</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.326499875244744</v>
+        <v>1.251142311549085</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.523526983598087</v>
+        <v>1.330747083624305</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.428969638671668</v>
+        <v>1.469806091131457</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.482536922153323</v>
+        <v>1.542888963823559</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.295164190381766</v>
+        <v>1.685990411068226</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.423727024691471</v>
+        <v>1.452423523833157</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.390240728670343</v>
+        <v>1.345897712027152</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.597743880420827</v>
+        <v>1.737165739528897</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.284027819263371</v>
+        <v>1.236945474553881</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.906774353632755</v>
+        <v>1.821394483296727</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.13146827195387</v>
+        <v>1.316271195142593</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.604950589077264</v>
+        <v>1.494007304209553</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.546787454122704</v>
+        <v>1.335370248095684</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.566658768496509</v>
+        <v>1.337189368087498</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.333696940792684</v>
+        <v>1.74661712649793</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.357693522636058</v>
+        <v>1.332370949029847</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.483217167941832</v>
+        <v>1.401330239275186</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.65718100441703</v>
+        <v>1.463301069590012</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.482800286067825</v>
+        <v>1.510321997539538</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.367538218720905</v>
+        <v>1.465140860153123</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.476652223851693</v>
+        <v>1.52325752566259</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.515270294194597</v>
+        <v>1.482342122066595</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.280376696921338</v>
+        <v>1.723893413629065</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.627281052171863</v>
+        <v>1.496562650166406</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.531545162258581</v>
+        <v>1.640806751346439</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.418006002709533</v>
+        <v>1.593103023712519</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.460291541739435</v>
+        <v>1.34062453556145</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.673460140513626</v>
+        <v>1.58116625908961</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.530994999758302</v>
+        <v>1.094680351703953</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.558756814990968</v>
+        <v>1.544039734331883</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.591204261660616</v>
+        <v>1.24708979986585</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.517354405425404</v>
+        <v>1.356628125660523</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.613258491533231</v>
+        <v>1.236637393367527</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.376255303050435</v>
+        <v>1.678537695887738</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.731290297848616</v>
+        <v>1.454448590381085</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.48204382908862</v>
+        <v>1.542989292429426</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.212329309617566</v>
+        <v>1.320416223064513</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.534828780701878</v>
+        <v>1.487643709665314</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.21283543821583</v>
+        <v>1.47418219248699</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.413044049895163</v>
+        <v>1.506949788249134</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.650065068645898</v>
+        <v>1.354382766672354</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.772775411887457</v>
+        <v>1.459677178485296</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.279448414151561</v>
+        <v>1.291133280164965</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.470753352315312</v>
+        <v>1.560152219175496</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.565245069393555</v>
+        <v>1.044925001496632</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.207221947671107</v>
+        <v>1.65919425521058</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.675422151597431</v>
+        <v>1.41384707721715</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.630562011296397</v>
+        <v>1.521016762659495</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1.51608055031703</v>
+        <v>1.518187594139803</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.416678445561443</v>
+        <v>1.295572175362559</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.372531121838023</v>
+        <v>1.465394894704979</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.541071991653482</v>
+        <v>1.379935184664068</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.536358140849711</v>
+        <v>1.473255291942325</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.604078317868606</v>
+        <v>1.54413863937196</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.388094066095371</v>
+        <v>1.528688822022352</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.515747049193345</v>
+        <v>1.500229646771852</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.421442020844612</v>
+        <v>1.421230508651152</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.839492758023052</v>
+        <v>1.363750641268743</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.548224285404309</v>
+        <v>1.551184090324992</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.483313996309487</v>
+        <v>1.672718489069472</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.450532270130585</v>
+        <v>1.344673826910734</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.490575358117188</v>
+        <v>1.45226772965051</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.538938473441183</v>
+        <v>1.659244749981401</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.539410859033663</v>
+        <v>1.375256856397377</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.571316121821593</v>
+        <v>1.57312810889881</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.357936112399952</v>
+        <v>1.645551550134318</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.366193328213638</v>
+        <v>1.502181136457386</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.411151865895342</v>
+        <v>1.426126407022429</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.340466266296854</v>
+        <v>1.503562324576537</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.622643373114186</v>
+        <v>1.460175125931597</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.494233603903891</v>
+        <v>1.495308022458691</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.496508950172942</v>
+        <v>1.395821366960423</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.363749622013497</v>
+        <v>1.670184694726718</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.362274011562191</v>
+        <v>1.908700329683519</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.397065197994153</v>
+        <v>1.638162736410775</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.251943178799241</v>
+        <v>1.430770950283534</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.686195002119402</v>
+        <v>1.526106117343205</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.501801816933955</v>
+        <v>1.429993264642345</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.422001791903917</v>
+        <v>1.653385153700505</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.453549044370073</v>
+        <v>1.488727220322365</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.554579836363988</v>
+        <v>1.48783534328502</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.698205552772906</v>
+        <v>1.63442122579058</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.578695788376778</v>
+        <v>1.546974858167978</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.407116394535106</v>
+        <v>1.42356922435931</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.296752845105519</v>
+        <v>1.082735533987816</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.562472898742349</v>
+        <v>1.353468014102099</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.334127984433565</v>
+        <v>1.441802409443583</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.62447693177108</v>
+        <v>1.676655939825118</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.343321650069139</v>
+        <v>1.847677126239954</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.483554201962641</v>
+        <v>1.478844824715989</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.455573216093651</v>
+        <v>1.54856112936763</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.395487249192531</v>
+        <v>1.547377243649714</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.543090286836653</v>
+        <v>1.574744724561308</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.446916071034821</v>
+        <v>1.457528689107437</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.387753935425296</v>
+        <v>1.323173582965421</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.135199884953848</v>
+        <v>1.41675098550435</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.333930877105</v>
+        <v>1.523599833652733</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.626304599206178</v>
+        <v>1.375826737423718</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.221935762559014</v>
+        <v>1.504276630403074</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.354428363231792</v>
+        <v>1.579976438418007</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.329743873062421</v>
+        <v>1.266655140603719</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.612437141808282</v>
+        <v>1.261707051857211</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.666029465083663</v>
+        <v>1.533154869474273</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.36037178964327</v>
+        <v>1.485114694511548</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.519194160586017</v>
+        <v>1.446559998569362</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.254190748127906</v>
+        <v>1.52163927679214</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.533599685643262</v>
+        <v>1.540267742050591</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.862936199790366</v>
+        <v>1.510486718246634</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.72441744239377</v>
+        <v>1.252933212958599</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.204464161216421</v>
+        <v>1.740926153217474</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.663093070451075</v>
+        <v>1.528955737786906</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.367486681779119</v>
+        <v>1.56964373096481</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.706185324821155</v>
+        <v>1.558923249698317</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.583707611388475</v>
+        <v>1.57373115230055</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.222105729280112</v>
+        <v>1.271704686011303</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.5983672745272</v>
+        <v>1.433922667566011</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.368959750253352</v>
+        <v>1.532309034605436</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.614710389876642</v>
+        <v>1.453249707784992</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.475287923123948</v>
+        <v>1.490393653456012</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1.572682511526627</v>
+        <v>1.433302134099437</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.691602991685028</v>
+        <v>1.605615637843629</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.465346197468344</v>
+        <v>1.18117824698964</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.375288257362353</v>
+        <v>1.471664936930502</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.307330311662507</v>
+        <v>1.169709592536118</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.780531596308292</v>
+        <v>1.152044460585815</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.472520177177768</v>
+        <v>1.610231092198622</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.594087372416616</v>
+        <v>1.216799090385117</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.477327499567621</v>
+        <v>1.51279798037811</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.525908193077239</v>
+        <v>1.430807941509333</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.713806746914826</v>
+        <v>1.509891081904091</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.600162617456367</v>
+        <v>1.5022740841513</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.429260944063864</v>
+        <v>1.429904371364164</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.586175087722683</v>
+        <v>1.496899515076742</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.191833146931641</v>
+        <v>1.430014315325971</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.286209105380223</v>
+        <v>1.644323314691409</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.458765331623541</v>
+        <v>1.563489749621664</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.234619206609111</v>
+        <v>1.602880377896997</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.382989636922487</v>
+        <v>1.384357102656349</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.505890336473937</v>
+        <v>1.642482028618641</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.489996475693257</v>
+        <v>1.613451388451519</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.596974998297871</v>
+        <v>1.318771206389047</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.390439657075402</v>
+        <v>1.445619628708807</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.646346657495764</v>
+        <v>1.451187221825348</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.293161517859774</v>
+        <v>1.654766676048889</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.273090731059231</v>
+        <v>1.460585294081483</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.346520995641127</v>
+        <v>1.681980195730762</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.524167595545088</v>
+        <v>1.477207232957562</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.665287898132465</v>
+        <v>1.413475775605737</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.449160666409397</v>
+        <v>1.413262177376303</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.451425639930089</v>
+        <v>1.615427539043826</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.478672555162567</v>
+        <v>1.279179117862472</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.736832583550927</v>
+        <v>1.653707125896346</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.570025211667744</v>
+        <v>1.626183834433306</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.635028941609384</v>
+        <v>1.259079777347215</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.705372366544892</v>
+        <v>1.608822244237699</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.458867753726891</v>
+        <v>1.639484036147496</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1.673669820765573</v>
+        <v>1.353913989777548</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.598843333960602</v>
+        <v>1.381504181164012</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.509255533279522</v>
+        <v>1.46553455263874</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.713531441920278</v>
+        <v>1.456668067464776</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.388831007387609</v>
+        <v>1.592679140701643</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.308190026323572</v>
+        <v>1.288075664445102</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.486515528423648</v>
+        <v>1.776054009394449</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.644923813394809</v>
+        <v>1.525489347894241</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.533797687936006</v>
+        <v>1.578699101400398</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.649287145410703</v>
+        <v>1.678512552659475</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.954621617637408</v>
+        <v>1.661316750608959</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.488265301362748</v>
+        <v>1.39660056555573</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.504073344990033</v>
+        <v>1.709816792997701</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.479434554831787</v>
+        <v>1.645150527059969</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.604321785471622</v>
+        <v>1.543382390468642</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.436446428845507</v>
+        <v>1.471567508266655</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.351685995483692</v>
+        <v>1.713878760236913</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.350433072008521</v>
+        <v>1.551897172546181</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.464209627067675</v>
+        <v>1.740954339201265</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.656543704251944</v>
+        <v>1.433003574694946</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.356241997567595</v>
+        <v>1.628128959389263</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>1.653991774021466</v>
+        <v>1.707023332254395</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.66296982035844</v>
+        <v>1.296529686380381</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.298568305557703</v>
+        <v>1.601861596509867</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.282775961817039</v>
+        <v>1.474790597136557</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.576241885426839</v>
+        <v>1.441004621557999</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.340226453163694</v>
+        <v>1.385243795800276</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.338793904051509</v>
+        <v>1.544690043230737</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.664410569915091</v>
+        <v>1.484484011330968</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.372669002623596</v>
+        <v>1.761310036566915</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.193462825096849</v>
+        <v>1.524726243954039</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.264758582378146</v>
+        <v>1.424057080839463</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.413084193197172</v>
+        <v>1.652099099988801</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.524450870033071</v>
+        <v>1.529580796624122</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.670834892327866</v>
+        <v>1.67517177985435</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.587738007095305</v>
+        <v>1.422414543477919</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.478344865950009</v>
+        <v>1.502483436902387</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.359245329170226</v>
+        <v>1.5757387814502</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.490157794720341</v>
+        <v>1.560531362291946</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.802651909308821</v>
+        <v>1.425263063606605</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.909448414068111</v>
+        <v>1.322077769539922</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.853664334303537</v>
+        <v>1.455854275684251</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.526408743086439</v>
+        <v>1.536473577288018</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.4980650646341</v>
+        <v>1.484670497360731</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.455978375111235</v>
+        <v>1.321936636609603</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.304754349089505</v>
+        <v>1.575261964163438</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.206023171857622</v>
+        <v>1.601335371607397</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.266812578617894</v>
+        <v>1.362150182862082</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.309534446582014</v>
+        <v>1.710953564920618</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.288531645479348</v>
+        <v>1.308177188342104</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.903338756236962</v>
+        <v>1.569179042557834</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.451837076151858</v>
+        <v>1.502304329830674</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.384115279196348</v>
+        <v>1.31325788138519</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.512653169316381</v>
+        <v>1.367502205913682</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.664740859265096</v>
+        <v>1.282528785385413</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.555485215757519</v>
+        <v>1.75994318049212</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.426407525210342</v>
+        <v>1.506192871870795</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.233229965977242</v>
+        <v>1.384113512495105</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.325677461730661</v>
+        <v>1.373493218169657</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.466378380449769</v>
+        <v>1.182066256081783</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.379441451668245</v>
+        <v>1.326052314619639</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.608712367895934</v>
+        <v>1.340842455872465</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.409745308382809</v>
+        <v>1.619316829687992</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.390102406059316</v>
+        <v>1.275259438438435</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.456291221522639</v>
+        <v>1.559996342749237</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.359111533968902</v>
+        <v>1.628084025691323</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.444671559306943</v>
+        <v>1.487301588133331</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.524050567439461</v>
+        <v>1.476469101113114</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.622753799099373</v>
+        <v>1.489141627929608</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.390936849986687</v>
+        <v>1.578973460646611</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.45370196668803</v>
+        <v>1.573648525441952</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.456598431294104</v>
+        <v>1.576854990243184</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.594517891428788</v>
+        <v>1.396949533037904</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.368303213063404</v>
+        <v>1.273434524630035</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.334098938168639</v>
+        <v>1.604828807509993</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.595719987783659</v>
+        <v>1.353678476650036</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.604224822735094</v>
+        <v>1.484957270076804</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.617908441710595</v>
+        <v>1.621546655151348</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.503903272946135</v>
+        <v>1.588763169117869</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.401699332427976</v>
+        <v>1.646270125545224</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.637976488399167</v>
+        <v>1.296444938636123</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.673744934847604</v>
+        <v>1.476322621768219</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.428509617704147</v>
+        <v>1.289168570517217</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/14_localizer.xlsx
+++ b/sequences/14_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>house</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>house/house070.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
     <t>face/face091.jpg</t>
   </si>
   <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
     <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.493440401782044</v>
+        <v>1.719403416781592</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.448567795354149</v>
+        <v>1.479077571782738</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.622151061496097</v>
+        <v>1.244592966794476</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.897444786903322</v>
+        <v>1.53369689250109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.687205842222832</v>
+        <v>1.480251760037132</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.334231409584837</v>
+        <v>1.415236901784836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.533154439037246</v>
+        <v>1.422534920497778</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.842802825750471</v>
+        <v>1.643254206294429</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.702641509973909</v>
+        <v>1.377107544485239</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.439502759475322</v>
+        <v>1.47867558015171</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.587584735439294</v>
+        <v>1.645561564736836</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.24141603433684</v>
+        <v>1.592497104054818</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.382463197507808</v>
+        <v>1.432929002614663</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.616545584025247</v>
+        <v>1.651371871302965</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.42742999797675</v>
+        <v>1.226104618121551</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.160379297520736</v>
+        <v>1.461374255905202</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.602087070624526</v>
+        <v>1.587434665692202</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.251142311549085</v>
+        <v>1.30610836311635</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.330747083624305</v>
+        <v>1.481110950878547</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.469806091131457</v>
+        <v>1.349857120930788</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.542888963823559</v>
+        <v>1.605758240088599</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.685990411068226</v>
+        <v>1.437834133630252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.452423523833157</v>
+        <v>1.386736736094667</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.345897712027152</v>
+        <v>1.537972756376687</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.737165739528897</v>
+        <v>1.604534797349293</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.236945474553881</v>
+        <v>1.31331881630988</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.821394483296727</v>
+        <v>1.376831147076043</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.316271195142593</v>
+        <v>1.473212330765404</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.494007304209553</v>
+        <v>1.667792442371647</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.335370248095684</v>
+        <v>1.494359906453347</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.337189368087498</v>
+        <v>1.677708687552257</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.74661712649793</v>
+        <v>1.470808990416609</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.332370949029847</v>
+        <v>1.601820544960084</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.401330239275186</v>
+        <v>1.425750799415437</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.463301069590012</v>
+        <v>1.871890209527176</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.510321997539538</v>
+        <v>1.464088785492149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.465140860153123</v>
+        <v>1.383501844258203</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.52325752566259</v>
+        <v>1.911579797914171</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.482342122066595</v>
+        <v>1.484017449201996</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.723893413629065</v>
+        <v>1.674107817928801</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.496562650166406</v>
+        <v>1.403317048116394</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.640806751346439</v>
+        <v>1.75879389727931</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.593103023712519</v>
+        <v>1.359343091959203</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.34062453556145</v>
+        <v>1.614296360482029</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.58116625908961</v>
+        <v>1.440321740174663</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.094680351703953</v>
+        <v>1.680430201992178</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.544039734331883</v>
+        <v>1.495966781903474</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.24708979986585</v>
+        <v>1.480223850535614</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.356628125660523</v>
+        <v>1.547882706476481</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.236637393367527</v>
+        <v>1.69416882411232</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.678537695887738</v>
+        <v>1.577084322238811</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.454448590381085</v>
+        <v>1.632920465843168</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.542989292429426</v>
+        <v>1.495243087459798</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.320416223064513</v>
+        <v>1.827189040801992</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.487643709665314</v>
+        <v>1.797113933566947</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.47418219248699</v>
+        <v>1.302976070153381</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.506949788249134</v>
+        <v>1.181482075670926</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.354382766672354</v>
+        <v>1.491346472643474</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.459677178485296</v>
+        <v>1.546968080756614</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.291133280164965</v>
+        <v>1.639737558419909</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.560152219175496</v>
+        <v>1.588976328463995</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.044925001496632</v>
+        <v>1.693469771069789</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.65919425521058</v>
+        <v>1.550045220312936</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.41384707721715</v>
+        <v>1.486467384826023</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.521016762659495</v>
+        <v>1.509891942915703</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.518187594139803</v>
+        <v>1.56317390831302</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.295572175362559</v>
+        <v>1.453730490606934</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.465394894704979</v>
+        <v>1.679763991184956</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.379935184664068</v>
+        <v>1.444952668525648</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.473255291942325</v>
+        <v>1.439537429433593</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.54413863937196</v>
+        <v>1.423821324236265</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.528688822022352</v>
+        <v>1.553625889255408</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.500229646771852</v>
+        <v>1.267129563779247</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.421230508651152</v>
+        <v>1.695549767172184</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.363750641268743</v>
+        <v>1.472902420542945</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.551184090324992</v>
+        <v>1.531259909556901</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.672718489069472</v>
+        <v>1.509014184766258</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.344673826910734</v>
+        <v>1.462367728410801</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.45226772965051</v>
+        <v>1.37645656350122</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.659244749981401</v>
+        <v>1.436663717292413</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.375256856397377</v>
+        <v>1.595669565204297</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.57312810889881</v>
+        <v>1.242106392954553</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.645551550134318</v>
+        <v>1.246490040826995</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.502181136457386</v>
+        <v>1.306335924613415</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.426126407022429</v>
+        <v>1.432575767677945</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.503562324576537</v>
+        <v>1.527396020476678</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.460175125931597</v>
+        <v>1.345817990448777</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.495308022458691</v>
+        <v>1.668181239814102</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.395821366960423</v>
+        <v>1.324505758179229</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.670184694726718</v>
+        <v>1.298421584811319</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.908700329683519</v>
+        <v>1.640270907877572</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.638162736410775</v>
+        <v>1.402325761184915</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.430770950283534</v>
+        <v>1.698114754946482</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.526106117343205</v>
+        <v>1.00212277632236</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.429993264642345</v>
+        <v>1.546774667623214</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.653385153700505</v>
+        <v>1.487234086953235</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.488727220322365</v>
+        <v>1.498026422889304</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.48783534328502</v>
+        <v>1.317258381219109</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.63442122579058</v>
+        <v>1.41785558806425</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.546974858167978</v>
+        <v>1.351760968376144</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.42356922435931</v>
+        <v>1.440393628696158</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.082735533987816</v>
+        <v>1.509097821834189</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.353468014102099</v>
+        <v>1.335584601520547</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.441802409443583</v>
+        <v>1.568590768828792</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.676655939825118</v>
+        <v>1.653616602847739</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.847677126239954</v>
+        <v>1.762293559378074</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.478844824715989</v>
+        <v>1.467854295991056</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.54856112936763</v>
+        <v>1.719281462001538</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.547377243649714</v>
+        <v>1.819734611103717</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.574744724561308</v>
+        <v>1.461566005075194</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.457528689107437</v>
+        <v>1.413821853793502</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.323173582965421</v>
+        <v>1.553399729645697</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.41675098550435</v>
+        <v>1.699562520588583</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.523599833652733</v>
+        <v>1.803426372221399</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.375826737423718</v>
+        <v>1.806770340219304</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.504276630403074</v>
+        <v>1.540736304125328</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.579976438418007</v>
+        <v>1.491335489145225</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.266655140603719</v>
+        <v>1.560176780904297</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.261707051857211</v>
+        <v>1.703275388926659</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.533154869474273</v>
+        <v>1.558265013314024</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.485114694511548</v>
+        <v>1.621661052156857</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.446559998569362</v>
+        <v>1.249182351643869</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.52163927679214</v>
+        <v>1.619157718269648</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.540267742050591</v>
+        <v>1.278605902999006</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.510486718246634</v>
+        <v>1.419726986294919</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.252933212958599</v>
+        <v>1.444436188348375</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.740926153217474</v>
+        <v>1.408240730691295</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.528955737786906</v>
+        <v>1.474346659207112</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.56964373096481</v>
+        <v>1.397623057734239</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.558923249698317</v>
+        <v>1.321232504183252</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.57373115230055</v>
+        <v>1.263441018620239</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.271704686011303</v>
+        <v>1.593415207271671</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.433922667566011</v>
+        <v>1.441719997665164</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.532309034605436</v>
+        <v>1.585473575234453</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.453249707784992</v>
+        <v>1.697285059208361</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.490393653456012</v>
+        <v>1.432777796774434</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.433302134099437</v>
+        <v>1.454545366621596</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.605615637843629</v>
+        <v>1.844497148403783</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.18117824698964</v>
+        <v>1.179427353612613</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.471664936930502</v>
+        <v>1.334899096333405</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.169709592536118</v>
+        <v>1.557778298211551</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.152044460585815</v>
+        <v>1.570318643325985</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.610231092198622</v>
+        <v>1.621843479083233</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.216799090385117</v>
+        <v>1.495514054939587</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.51279798037811</v>
+        <v>1.602284414228743</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.430807941509333</v>
+        <v>1.155836773879276</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.509891081904091</v>
+        <v>1.489114018512204</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.5022740841513</v>
+        <v>1.590312652899929</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.429904371364164</v>
+        <v>1.506265431093885</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.496899515076742</v>
+        <v>1.395035984889561</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.430014315325971</v>
+        <v>1.301440661828385</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.644323314691409</v>
+        <v>1.403822264761492</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.563489749621664</v>
+        <v>1.690025970816714</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.602880377896997</v>
+        <v>1.592616014796511</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.384357102656349</v>
+        <v>1.560682072065787</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.642482028618641</v>
+        <v>1.455006018413514</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.613451388451519</v>
+        <v>1.420284653833715</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.318771206389047</v>
+        <v>1.425470473248897</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.445619628708807</v>
+        <v>1.497928739960323</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.451187221825348</v>
+        <v>1.504597564205682</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.654766676048889</v>
+        <v>1.541064597749392</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.460585294081483</v>
+        <v>1.645452657270256</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.681980195730762</v>
+        <v>1.62928527050521</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.477207232957562</v>
+        <v>1.530724225411911</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.413475775605737</v>
+        <v>1.512016899942036</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.413262177376303</v>
+        <v>1.592931921342021</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.615427539043826</v>
+        <v>1.364375099287572</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.279179117862472</v>
+        <v>1.500751313098051</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.653707125896346</v>
+        <v>1.646759529741787</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.626183834433306</v>
+        <v>1.455829078453428</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.259079777347215</v>
+        <v>1.498848612321133</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.608822244237699</v>
+        <v>1.672183788869395</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.639484036147496</v>
+        <v>1.300474757530521</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.353913989777548</v>
+        <v>1.554748736961352</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.381504181164012</v>
+        <v>1.630903894057108</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.46553455263874</v>
+        <v>1.542660585416612</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.456668067464776</v>
+        <v>1.567817946662251</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.592679140701643</v>
+        <v>1.511586516298425</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.288075664445102</v>
+        <v>1.490680201325779</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.776054009394449</v>
+        <v>1.765112893588618</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.525489347894241</v>
+        <v>1.528996160375167</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.578699101400398</v>
+        <v>1.31594619077315</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.678512552659475</v>
+        <v>1.504579764155186</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.661316750608959</v>
+        <v>1.223517891020316</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.39660056555573</v>
+        <v>1.555836072571387</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.709816792997701</v>
+        <v>1.359038547096485</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.645150527059969</v>
+        <v>1.463511618594279</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.543382390468642</v>
+        <v>1.477629656282483</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.471567508266655</v>
+        <v>1.47774746163975</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.713878760236913</v>
+        <v>1.521325691513531</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.551897172546181</v>
+        <v>1.387342375274024</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.740954339201265</v>
+        <v>1.472122567910583</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.433003574694946</v>
+        <v>1.627365678308244</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.628128959389263</v>
+        <v>1.423533502438391</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.707023332254395</v>
+        <v>1.247966873198479</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.296529686380381</v>
+        <v>1.820527119244447</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.601861596509867</v>
+        <v>1.597534938667836</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.474790597136557</v>
+        <v>1.428889053918242</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.441004621557999</v>
+        <v>1.441009713680468</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.385243795800276</v>
+        <v>1.428725967122292</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.544690043230737</v>
+        <v>1.488298251015538</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.484484011330968</v>
+        <v>1.377476222116172</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.761310036566915</v>
+        <v>1.450188644758067</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.524726243954039</v>
+        <v>1.541751229726366</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.424057080839463</v>
+        <v>1.232259154818698</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.652099099988801</v>
+        <v>1.39913175804956</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.529580796624122</v>
+        <v>1.630079750002215</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.67517177985435</v>
+        <v>1.484515151178846</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.422414543477919</v>
+        <v>1.335898129098217</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.502483436902387</v>
+        <v>1.670816316149366</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.5757387814502</v>
+        <v>1.681633247102282</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.560531362291946</v>
+        <v>1.352915750643565</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.425263063606605</v>
+        <v>1.381882432877504</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.322077769539922</v>
+        <v>1.545493906513836</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.455854275684251</v>
+        <v>1.436436166182322</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.536473577288018</v>
+        <v>1.440274804103285</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.484670497360731</v>
+        <v>1.60077498338443</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.321936636609603</v>
+        <v>1.385819884470838</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.575261964163438</v>
+        <v>1.489746415374587</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.601335371607397</v>
+        <v>1.6856150254975</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.362150182862082</v>
+        <v>1.438029941701294</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.710953564920618</v>
+        <v>1.420984772068277</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.308177188342104</v>
+        <v>1.593409069521523</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.569179042557834</v>
+        <v>1.534298043629842</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.502304329830674</v>
+        <v>1.396470912727876</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.31325788138519</v>
+        <v>1.628427725928292</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.367502205913682</v>
+        <v>1.363679461084887</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.282528785385413</v>
+        <v>1.75610911928334</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.75994318049212</v>
+        <v>1.576388682185205</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.506192871870795</v>
+        <v>1.463181654430417</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.384113512495105</v>
+        <v>1.637405803192379</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.373493218169657</v>
+        <v>1.151102507886717</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.182066256081783</v>
+        <v>1.53780276131462</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.326052314619639</v>
+        <v>1.268271867812772</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.340842455872465</v>
+        <v>1.480971548166363</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.619316829687992</v>
+        <v>1.611522028613563</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.275259438438435</v>
+        <v>1.798815837966225</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.559996342749237</v>
+        <v>1.424893146236977</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.628084025691323</v>
+        <v>1.71500836247916</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.487301588133331</v>
+        <v>1.330633653346829</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.476469101113114</v>
+        <v>1.380713527374262</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.489141627929608</v>
+        <v>1.441402324104412</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.578973460646611</v>
+        <v>1.434520859401922</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.573648525441952</v>
+        <v>1.449156692886972</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.576854990243184</v>
+        <v>1.197965304488573</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.396949533037904</v>
+        <v>1.556768021410083</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.273434524630035</v>
+        <v>1.685310572756275</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.604828807509993</v>
+        <v>1.742360177927199</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.353678476650036</v>
+        <v>1.398663158301312</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.484957270076804</v>
+        <v>1.6601322383165</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.621546655151348</v>
+        <v>1.605208803320403</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.588763169117869</v>
+        <v>1.668501475531255</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.646270125545224</v>
+        <v>1.703403368133249</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.296444938636123</v>
+        <v>1.533999222185082</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.476322621768219</v>
+        <v>1.474640172499207</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.289168570517217</v>
+        <v>1.768403610999078</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/14_localizer.xlsx
+++ b/sequences/14_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>house/house063.jpg</t>
   </si>
   <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
+    <t>face/face088.jpg</t>
   </si>
   <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
     <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.719403416781592</v>
+        <v>1.265762547312038</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.479077571782738</v>
+        <v>1.647021450705437</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.244592966794476</v>
+        <v>1.371621418653155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.53369689250109</v>
+        <v>1.306659272372548</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.480251760037132</v>
+        <v>1.624868846649171</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.415236901784836</v>
+        <v>1.355744195522822</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.422534920497778</v>
+        <v>1.394087332537468</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.643254206294429</v>
+        <v>1.54042314378036</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.377107544485239</v>
+        <v>1.222002445900737</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.47867558015171</v>
+        <v>1.539702652310797</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.645561564736836</v>
+        <v>1.642254110107691</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.592497104054818</v>
+        <v>1.369951748334698</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.432929002614663</v>
+        <v>1.228291061149363</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.651371871302965</v>
+        <v>1.570005481354534</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.226104618121551</v>
+        <v>1.628939540897827</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.461374255905202</v>
+        <v>1.392408876981067</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.587434665692202</v>
+        <v>1.587025597976863</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.30610836311635</v>
+        <v>1.572496715956181</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.481110950878547</v>
+        <v>1.59974940495865</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.349857120930788</v>
+        <v>1.174380708565837</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.605758240088599</v>
+        <v>1.650286366050086</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.437834133630252</v>
+        <v>1.547141928373624</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.386736736094667</v>
+        <v>1.198503662524138</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.537972756376687</v>
+        <v>1.551193666194875</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.604534797349293</v>
+        <v>1.598422472966744</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.31331881630988</v>
+        <v>1.655984031231851</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.376831147076043</v>
+        <v>1.548795226884855</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.473212330765404</v>
+        <v>1.447129576552647</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.667792442371647</v>
+        <v>1.545626569655845</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.494359906453347</v>
+        <v>1.830103066080313</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.677708687552257</v>
+        <v>1.549388093880857</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.470808990416609</v>
+        <v>1.281364589482338</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.601820544960084</v>
+        <v>1.176932865484739</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.425750799415437</v>
+        <v>1.206630705267383</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.871890209527176</v>
+        <v>1.58564743375639</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.464088785492149</v>
+        <v>1.55691560510515</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.383501844258203</v>
+        <v>1.250285523263355</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.911579797914171</v>
+        <v>1.312253992443191</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.484017449201996</v>
+        <v>1.579999443531273</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.674107817928801</v>
+        <v>1.273556196474877</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.403317048116394</v>
+        <v>1.325687724781591</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.75879389727931</v>
+        <v>1.3795326319982</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.359343091959203</v>
+        <v>1.462363446053424</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.614296360482029</v>
+        <v>1.391600482465202</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.440321740174663</v>
+        <v>1.461244885635232</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.680430201992178</v>
+        <v>1.674927521633171</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.495966781903474</v>
+        <v>1.761916430626571</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.480223850535614</v>
+        <v>1.498799350664868</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.547882706476481</v>
+        <v>1.236993919523026</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.69416882411232</v>
+        <v>1.381695430891576</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.577084322238811</v>
+        <v>1.475467561274794</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.632920465843168</v>
+        <v>1.396419669667649</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.495243087459798</v>
+        <v>1.640822434649122</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.827189040801992</v>
+        <v>1.514043311913505</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.797113933566947</v>
+        <v>1.260804455831981</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.302976070153381</v>
+        <v>1.568241530486886</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.181482075670926</v>
+        <v>1.379280524135767</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.491346472643474</v>
+        <v>1.584405328037674</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.546968080756614</v>
+        <v>1.464220669703017</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.639737558419909</v>
+        <v>1.483080106356748</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.588976328463995</v>
+        <v>1.586383986593888</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.693469771069789</v>
+        <v>1.442692499402217</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.550045220312936</v>
+        <v>1.386438335337699</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.486467384826023</v>
+        <v>1.434514884397682</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.509891942915703</v>
+        <v>1.548758057503154</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.56317390831302</v>
+        <v>1.619457610338952</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.453730490606934</v>
+        <v>1.461027649144204</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.679763991184956</v>
+        <v>1.398080491383478</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.444952668525648</v>
+        <v>1.478692419442962</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.439537429433593</v>
+        <v>1.320382463674693</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.423821324236265</v>
+        <v>1.190725941777745</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.553625889255408</v>
+        <v>1.621143437115373</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.267129563779247</v>
+        <v>1.294006024240722</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.695549767172184</v>
+        <v>1.506960788235416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.472902420542945</v>
+        <v>1.437170884998428</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.531259909556901</v>
+        <v>1.621336037211847</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.509014184766258</v>
+        <v>1.547761865087358</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.462367728410801</v>
+        <v>1.450983934936985</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.37645656350122</v>
+        <v>1.652091464184838</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.436663717292413</v>
+        <v>1.607029160724219</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.595669565204297</v>
+        <v>1.333940268198543</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.242106392954553</v>
+        <v>1.242347358990947</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.246490040826995</v>
+        <v>1.209934677306524</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.306335924613415</v>
+        <v>1.594536695745789</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.432575767677945</v>
+        <v>1.596586406391302</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.527396020476678</v>
+        <v>1.47178861509754</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.345817990448777</v>
+        <v>1.729332943672443</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.668181239814102</v>
+        <v>1.493378959615548</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.324505758179229</v>
+        <v>1.746532664825257</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.298421584811319</v>
+        <v>1.639552866330298</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.640270907877572</v>
+        <v>1.671060280189424</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.402325761184915</v>
+        <v>1.098377091443366</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.698114754946482</v>
+        <v>1.655196964223181</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.00212277632236</v>
+        <v>1.593943465642256</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.546774667623214</v>
+        <v>1.179751795180714</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.487234086953235</v>
+        <v>1.236697993589062</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.498026422889304</v>
+        <v>1.523329092891529</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.317258381219109</v>
+        <v>1.219455498297919</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.41785558806425</v>
+        <v>1.428125151413718</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.351760968376144</v>
+        <v>1.350887281643417</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.440393628696158</v>
+        <v>1.21079043617152</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.509097821834189</v>
+        <v>1.595564708708292</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.335584601520547</v>
+        <v>1.539436808226753</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.568590768828792</v>
+        <v>1.534543409513949</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.653616602847739</v>
+        <v>1.784777105755642</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.762293559378074</v>
+        <v>1.519185301258554</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.467854295991056</v>
+        <v>1.469739512757093</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.719281462001538</v>
+        <v>1.671063837559622</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.819734611103717</v>
+        <v>1.450036942542363</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.461566005075194</v>
+        <v>1.395633313190109</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.413821853793502</v>
+        <v>1.23948785522771</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.553399729645697</v>
+        <v>1.345036872473288</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.699562520588583</v>
+        <v>1.368991445994274</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.803426372221399</v>
+        <v>1.400948544236456</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.806770340219304</v>
+        <v>1.428675862204523</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.540736304125328</v>
+        <v>1.472523421088867</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1.491335489145225</v>
+        <v>1.857564204376053</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.560176780904297</v>
+        <v>1.78845157538788</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.703275388926659</v>
+        <v>1.568568711128904</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.558265013314024</v>
+        <v>1.272529509827188</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1.621661052156857</v>
+        <v>1.489369492851063</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.249182351643869</v>
+        <v>1.505974538978453</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.619157718269648</v>
+        <v>1.582631059842859</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.278605902999006</v>
+        <v>1.553677730469442</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.419726986294919</v>
+        <v>1.505918108665741</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.444436188348375</v>
+        <v>1.354431541772906</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.408240730691295</v>
+        <v>1.650823246637901</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.474346659207112</v>
+        <v>1.651838622838139</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.397623057734239</v>
+        <v>1.570445664826085</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.321232504183252</v>
+        <v>1.156668196359714</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.263441018620239</v>
+        <v>1.394588586673752</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.593415207271671</v>
+        <v>1.394096449928679</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.441719997665164</v>
+        <v>1.417371522629473</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.585473575234453</v>
+        <v>1.53552248712389</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.697285059208361</v>
+        <v>1.603601175181272</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.432777796774434</v>
+        <v>1.607222471422634</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.454545366621596</v>
+        <v>1.539918101394019</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.844497148403783</v>
+        <v>1.398897929190978</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.179427353612613</v>
+        <v>1.719366913295674</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.334899096333405</v>
+        <v>1.380163978902311</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.557778298211551</v>
+        <v>1.56009639718441</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.570318643325985</v>
+        <v>1.476853886856233</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.621843479083233</v>
+        <v>1.581872231126569</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.495514054939587</v>
+        <v>1.318762024070472</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.602284414228743</v>
+        <v>1.637634198788736</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.155836773879276</v>
+        <v>1.533845101322017</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.489114018512204</v>
+        <v>1.284183246088423</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.590312652899929</v>
+        <v>1.18037273181409</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.506265431093885</v>
+        <v>1.497005189259893</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.395035984889561</v>
+        <v>1.443419589404962</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.301440661828385</v>
+        <v>1.725207803716985</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.403822264761492</v>
+        <v>1.182764970827474</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.690025970816714</v>
+        <v>1.269146819395088</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.592616014796511</v>
+        <v>1.541820258723255</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.560682072065787</v>
+        <v>1.348618537688147</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.455006018413514</v>
+        <v>1.470930252015528</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.420284653833715</v>
+        <v>1.600707375112505</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.425470473248897</v>
+        <v>1.417127121494197</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.497928739960323</v>
+        <v>1.271188692772122</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.504597564205682</v>
+        <v>1.154096494581748</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.541064597749392</v>
+        <v>1.755913293601847</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.645452657270256</v>
+        <v>1.483290199549411</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.62928527050521</v>
+        <v>1.519848980825689</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.530724225411911</v>
+        <v>1.326003179716248</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.512016899942036</v>
+        <v>1.459090016831126</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.592931921342021</v>
+        <v>1.635439866156722</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.364375099287572</v>
+        <v>1.367336966342684</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.500751313098051</v>
+        <v>1.345434176180869</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.646759529741787</v>
+        <v>1.402663521653097</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.455829078453428</v>
+        <v>1.686399472094329</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.498848612321133</v>
+        <v>1.542011981377313</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.672183788869395</v>
+        <v>1.501969907048817</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.300474757530521</v>
+        <v>1.678707011155655</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.554748736961352</v>
+        <v>1.530211036792354</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.630903894057108</v>
+        <v>1.476454978606682</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.542660585416612</v>
+        <v>1.57044516300681</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.567817946662251</v>
+        <v>1.167401493295769</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.511586516298425</v>
+        <v>1.780650390618628</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.490680201325779</v>
+        <v>1.597367066678455</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.765112893588618</v>
+        <v>1.445215938795383</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.528996160375167</v>
+        <v>1.702798547534172</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.31594619077315</v>
+        <v>1.496250032091663</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.504579764155186</v>
+        <v>1.414261322485032</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.223517891020316</v>
+        <v>1.340401560660371</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.555836072571387</v>
+        <v>1.630536658028425</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.359038547096485</v>
+        <v>1.533713277918584</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.463511618594279</v>
+        <v>1.458672775039737</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.477629656282483</v>
+        <v>1.558957229612328</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.47774746163975</v>
+        <v>1.423244465793246</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.521325691513531</v>
+        <v>1.642096910151715</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.387342375274024</v>
+        <v>1.499495431163796</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.472122567910583</v>
+        <v>1.392995169156021</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.627365678308244</v>
+        <v>1.535753999623239</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.423533502438391</v>
+        <v>1.607694022549697</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.247966873198479</v>
+        <v>1.435689927745085</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.820527119244447</v>
+        <v>1.522321182964517</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.597534938667836</v>
+        <v>1.247925421936674</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.428889053918242</v>
+        <v>1.323566632968235</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.441009713680468</v>
+        <v>1.279878486647036</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.428725967122292</v>
+        <v>1.572037722807324</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.488298251015538</v>
+        <v>1.475859531742751</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.377476222116172</v>
+        <v>1.694488220325445</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.450188644758067</v>
+        <v>1.55401621535646</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.541751229726366</v>
+        <v>1.39861432231541</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.232259154818698</v>
+        <v>1.493001622134268</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.39913175804956</v>
+        <v>1.014157528858556</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.630079750002215</v>
+        <v>1.448859328728856</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.484515151178846</v>
+        <v>1.671011116058542</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.335898129098217</v>
+        <v>1.673330663863932</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.670816316149366</v>
+        <v>1.635311630396837</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.681633247102282</v>
+        <v>1.273416651906202</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.352915750643565</v>
+        <v>1.664667228759226</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.381882432877504</v>
+        <v>1.378049524117828</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.545493906513836</v>
+        <v>1.381206912640668</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.436436166182322</v>
+        <v>1.355453472075483</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.440274804103285</v>
+        <v>1.383314608539468</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.60077498338443</v>
+        <v>1.432801067884194</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.385819884470838</v>
+        <v>1.328080560609932</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.489746415374587</v>
+        <v>1.540147212798156</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.6856150254975</v>
+        <v>1.300902367369339</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.438029941701294</v>
+        <v>1.281937409146865</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.420984772068277</v>
+        <v>1.384806322846481</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.593409069521523</v>
+        <v>1.478102646473205</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.534298043629842</v>
+        <v>1.302778473973444</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.396470912727876</v>
+        <v>1.369778163276855</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.628427725928292</v>
+        <v>1.443319546223427</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.363679461084887</v>
+        <v>1.596152073456243</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.75610911928334</v>
+        <v>1.591566334408931</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.576388682185205</v>
+        <v>1.300063433913769</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.463181654430417</v>
+        <v>1.600405064906852</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.637405803192379</v>
+        <v>1.469441542864783</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.151102507886717</v>
+        <v>1.473774017629393</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.53780276131462</v>
+        <v>1.251434343886031</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.268271867812772</v>
+        <v>1.491308000995547</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.480971548166363</v>
+        <v>1.441281010378048</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.611522028613563</v>
+        <v>1.466042314070283</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.798815837966225</v>
+        <v>1.538078017216334</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.424893146236977</v>
+        <v>1.129682538898521</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.71500836247916</v>
+        <v>1.582610379096758</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.330633653346829</v>
+        <v>1.495186252291517</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.380713527374262</v>
+        <v>1.528008843129216</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.441402324104412</v>
+        <v>1.427077447156991</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.434520859401922</v>
+        <v>1.705084709656414</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.449156692886972</v>
+        <v>1.299246654695331</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.197965304488573</v>
+        <v>1.364507517391276</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.556768021410083</v>
+        <v>1.742867679996644</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.685310572756275</v>
+        <v>1.466638804193872</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.742360177927199</v>
+        <v>1.176339771106808</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.398663158301312</v>
+        <v>1.472239380003467</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.6601322383165</v>
+        <v>1.631140884095456</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.605208803320403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.668501475531255</v>
+        <v>1.652392572923564</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.703403368133249</v>
+        <v>1.456036780971081</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.533999222185082</v>
+        <v>1.499652549367661</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.474640172499207</v>
+        <v>1.500630951445618</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.768403610999078</v>
+        <v>1.280738248777414</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/14_localizer.xlsx
+++ b/sequences/14_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
   </si>
   <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
     <t>dog/dog059.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
   </si>
   <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
-    <t>house/house065.jpg</t>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
   </si>
   <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.265762547312038</v>
+        <v>1.575666402108064</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.647021450705437</v>
+        <v>1.470672454387062</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.371621418653155</v>
+        <v>1.739394065034327</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.306659272372548</v>
+        <v>1.443961762000818</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.624868846649171</v>
+        <v>1.55942156039805</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.355744195522822</v>
+        <v>1.56270830569956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.394087332537468</v>
+        <v>1.417112947093021</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.54042314378036</v>
+        <v>1.441339178412033</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.222002445900737</v>
+        <v>1.574377551244237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.539702652310797</v>
+        <v>1.392057204640396</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.642254110107691</v>
+        <v>1.699062521789433</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.369951748334698</v>
+        <v>1.890341331756695</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.228291061149363</v>
+        <v>1.597361478222845</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.570005481354534</v>
+        <v>1.258018224379146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.628939540897827</v>
+        <v>1.350584900225288</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.392408876981067</v>
+        <v>1.504694198944905</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.587025597976863</v>
+        <v>1.592260021598033</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.572496715956181</v>
+        <v>1.440492580901503</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.59974940495865</v>
+        <v>1.466782446702972</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.174380708565837</v>
+        <v>1.472315151406971</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.650286366050086</v>
+        <v>1.358027381841932</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.547141928373624</v>
+        <v>1.437080725783822</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.198503662524138</v>
+        <v>1.350307847484</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.551193666194875</v>
+        <v>1.493881357215428</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.598422472966744</v>
+        <v>1.663269025649504</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.655984031231851</v>
+        <v>1.50100794063577</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.548795226884855</v>
+        <v>1.485087521293141</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.447129576552647</v>
+        <v>1.563268372689625</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.545626569655845</v>
+        <v>1.449381819612173</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.830103066080313</v>
+        <v>1.256730227784103</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1.549388093880857</v>
+        <v>1.370870405520347</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.281364589482338</v>
+        <v>1.665151335680339</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.176932865484739</v>
+        <v>1.338675719489425</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1.206630705267383</v>
+        <v>1.494297150078034</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.58564743375639</v>
+        <v>1.550129046377478</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.55691560510515</v>
+        <v>1.361274917898831</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.250285523263355</v>
+        <v>1.699467760937746</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.312253992443191</v>
+        <v>1.39499321546798</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.579999443531273</v>
+        <v>1.309258945367106</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.273556196474877</v>
+        <v>1.490577794209829</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.325687724781591</v>
+        <v>1.480030995855926</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.3795326319982</v>
+        <v>1.709634392216012</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.462363446053424</v>
+        <v>1.363032493426011</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.391600482465202</v>
+        <v>1.529897347104024</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.461244885635232</v>
+        <v>1.460606149461596</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.674927521633171</v>
+        <v>1.252225047861772</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.761916430626571</v>
+        <v>1.51712560547915</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.498799350664868</v>
+        <v>1.233893538560902</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.236993919523026</v>
+        <v>1.40236248464515</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.381695430891576</v>
+        <v>1.362771779559173</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.475467561274794</v>
+        <v>1.507108127702851</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.396419669667649</v>
+        <v>1.587850321584921</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.640822434649122</v>
+        <v>1.621333611169303</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.514043311913505</v>
+        <v>1.496855495263244</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.260804455831981</v>
+        <v>1.352209162918049</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.568241530486886</v>
+        <v>1.635617423245256</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.379280524135767</v>
+        <v>1.3780249317435</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.584405328037674</v>
+        <v>1.132896321086907</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.464220669703017</v>
+        <v>1.313809427719088</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.483080106356748</v>
+        <v>1.40373679867252</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.586383986593888</v>
+        <v>1.287296134449259</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.442692499402217</v>
+        <v>1.564927667088901</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.386438335337699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.434514884397682</v>
+        <v>1.46339001772743</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.548758057503154</v>
+        <v>1.830323282325252</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.619457610338952</v>
+        <v>1.595539530528662</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.461027649144204</v>
+        <v>1.446961558440637</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.398080491383478</v>
+        <v>1.63309168809594</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.478692419442962</v>
+        <v>1.358095118282805</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.320382463674693</v>
+        <v>1.179192376385707</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.190725941777745</v>
+        <v>1.442135116294383</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.621143437115373</v>
+        <v>1.543135597801456</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.294006024240722</v>
+        <v>1.328340241672231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.506960788235416</v>
+        <v>1.488774345191751</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.437170884998428</v>
+        <v>1.731260419139026</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.621336037211847</v>
+        <v>1.071075846414527</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.547761865087358</v>
+        <v>1.439176239340628</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.450983934936985</v>
+        <v>1.529780283749955</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.652091464184838</v>
+        <v>1.630646895226507</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.607029160724219</v>
+        <v>1.500276642142852</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.333940268198543</v>
+        <v>1.524133500236195</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.242347358990947</v>
+        <v>1.308311547024188</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.209934677306524</v>
+        <v>1.321997987678392</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.594536695745789</v>
+        <v>1.55951474648082</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.596586406391302</v>
+        <v>1.543421713500206</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.47178861509754</v>
+        <v>1.490528014901994</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.729332943672443</v>
+        <v>1.494421065284636</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.493378959615548</v>
+        <v>1.308280180915123</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.746532664825257</v>
+        <v>1.573378270331702</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.639552866330298</v>
+        <v>1.602182572266411</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.671060280189424</v>
+        <v>1.582190491956684</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.098377091443366</v>
+        <v>1.799820128367265</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.655196964223181</v>
+        <v>1.31736151148041</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.593943465642256</v>
+        <v>1.444437113846125</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.179751795180714</v>
+        <v>1.465835143698463</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.236697993589062</v>
+        <v>1.591381255403233</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.523329092891529</v>
+        <v>1.417514885117514</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.219455498297919</v>
+        <v>1.734242518931951</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.428125151413718</v>
+        <v>1.48208655608921</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.350887281643417</v>
+        <v>1.249095292101809</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.21079043617152</v>
+        <v>1.191204088354054</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.595564708708292</v>
+        <v>1.754482162145709</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.539436808226753</v>
+        <v>1.50451386570094</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.534543409513949</v>
+        <v>1.216870918104598</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.784777105755642</v>
+        <v>1.542804108379124</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.519185301258554</v>
+        <v>1.741062482067395</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.469739512757093</v>
+        <v>1.749542620856307</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.671063837559622</v>
+        <v>1.361222252997456</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.450036942542363</v>
+        <v>1.368577600992498</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.395633313190109</v>
+        <v>1.735860665804242</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.23948785522771</v>
+        <v>1.281453454286845</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.345036872473288</v>
+        <v>1.590529318865992</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.368991445994274</v>
+        <v>1.52289675639108</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.400948544236456</v>
+        <v>1.41847988552975</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.428675862204523</v>
+        <v>1.437138124808933</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.472523421088867</v>
+        <v>1.644678313371554</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.857564204376053</v>
+        <v>1.3255023020135</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.78845157538788</v>
+        <v>1.651399505181925</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.568568711128904</v>
+        <v>1.580212543000686</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.272529509827188</v>
+        <v>1.741718049630545</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1.489369492851063</v>
+        <v>1.462041363462373</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.505974538978453</v>
+        <v>1.482436295408286</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.582631059842859</v>
+        <v>1.813638707249428</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.553677730469442</v>
+        <v>1.095832305419968</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.505918108665741</v>
+        <v>1.336982867399275</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.354431541772906</v>
+        <v>1.342670219710935</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.650823246637901</v>
+        <v>1.548461023424841</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.651838622838139</v>
+        <v>1.400073793539959</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.570445664826085</v>
+        <v>1.375208684472953</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.156668196359714</v>
+        <v>1.573339048795908</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.394588586673752</v>
+        <v>1.566050162881805</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.394096449928679</v>
+        <v>1.490296456625656</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.417371522629473</v>
+        <v>1.532427849065134</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.53552248712389</v>
+        <v>1.309806300700724</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.603601175181272</v>
+        <v>1.506572135288339</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.607222471422634</v>
+        <v>1.572074279422468</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.539918101394019</v>
+        <v>1.524799177390203</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.398897929190978</v>
+        <v>1.785775087222367</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.719366913295674</v>
+        <v>1.596852370929009</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.380163978902311</v>
+        <v>1.489700281892863</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.56009639718441</v>
+        <v>1.461558996383418</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.476853886856233</v>
+        <v>1.397947615233584</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.581872231126569</v>
+        <v>1.78551109472528</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.318762024070472</v>
+        <v>1.4273703418344</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.637634198788736</v>
+        <v>1.356927694359296</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.533845101322017</v>
+        <v>1.478505910845746</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.284183246088423</v>
+        <v>1.665410619640572</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.18037273181409</v>
+        <v>1.335649738011077</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.497005189259893</v>
+        <v>1.619101105208979</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.443419589404962</v>
+        <v>1.530619925481224</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.725207803716985</v>
+        <v>1.445628644155189</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.182764970827474</v>
+        <v>1.567702858669005</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.269146819395088</v>
+        <v>1.520189453332468</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.541820258723255</v>
+        <v>1.627422125338876</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.348618537688147</v>
+        <v>1.58378618683268</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.470930252015528</v>
+        <v>1.688942820352645</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.600707375112505</v>
+        <v>1.434634426660714</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.417127121494197</v>
+        <v>1.329074942133891</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.271188692772122</v>
+        <v>1.551138670132661</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.154096494581748</v>
+        <v>1.531537236875412</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.755913293601847</v>
+        <v>1.30701498977954</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.483290199549411</v>
+        <v>1.525817845938137</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.519848980825689</v>
+        <v>1.6271703872553</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.326003179716248</v>
+        <v>1.458851684676238</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.459090016831126</v>
+        <v>1.395222445628541</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.635439866156722</v>
+        <v>1.47189723275643</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.367336966342684</v>
+        <v>1.39550450019603</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.345434176180869</v>
+        <v>1.275560404256283</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.402663521653097</v>
+        <v>1.551463451632308</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.686399472094329</v>
+        <v>1.681761199802105</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.542011981377313</v>
+        <v>1.315301678816237</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.501969907048817</v>
+        <v>1.345276928484531</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.678707011155655</v>
+        <v>1.525541946802135</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.530211036792354</v>
+        <v>1.601557232717042</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.476454978606682</v>
+        <v>1.349792238823974</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.57044516300681</v>
+        <v>1.509606027472006</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.167401493295769</v>
+        <v>1.547810247382602</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.780650390618628</v>
+        <v>1.116779490025011</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.597367066678455</v>
+        <v>1.097635780920133</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.445215938795383</v>
+        <v>1.395762404971963</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.702798547534172</v>
+        <v>1.677486853461785</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.496250032091663</v>
+        <v>1.480478739489071</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.414261322485032</v>
+        <v>1.415729448607666</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.340401560660371</v>
+        <v>1.579077985316898</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.630536658028425</v>
+        <v>1.424724317939125</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.533713277918584</v>
+        <v>1.379633250112934</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.458672775039737</v>
+        <v>1.450997813740392</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.558957229612328</v>
+        <v>1.553476494094946</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.423244465793246</v>
+        <v>1.640399709602955</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.642096910151715</v>
+        <v>1.450198626640337</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.499495431163796</v>
+        <v>1.405884750558955</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.392995169156021</v>
+        <v>1.387519677685078</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.535753999623239</v>
+        <v>1.371022174051531</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1.607694022549697</v>
+        <v>1.453140091223481</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.435689927745085</v>
+        <v>1.405813886955753</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.522321182964517</v>
+        <v>1.455310643842003</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.247925421936674</v>
+        <v>1.752060032326823</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.323566632968235</v>
+        <v>1.481989563440254</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.279878486647036</v>
+        <v>1.280287213470597</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.572037722807324</v>
+        <v>1.439314864978968</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.475859531742751</v>
+        <v>1.656072478613684</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.694488220325445</v>
+        <v>1.362750165741118</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.55401621535646</v>
+        <v>1.297958834370702</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.39861432231541</v>
+        <v>1.713136562667422</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.493001622134268</v>
+        <v>1.572256025001902</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.014157528858556</v>
+        <v>1.513147204396005</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.448859328728856</v>
+        <v>1.493947818306447</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.671011116058542</v>
+        <v>1.559598935949103</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.673330663863932</v>
+        <v>1.400047393712263</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.635311630396837</v>
+        <v>1.616577972350794</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.273416651906202</v>
+        <v>1.429054034600074</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.664667228759226</v>
+        <v>1.68435822395946</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.378049524117828</v>
+        <v>1.360579965647577</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.381206912640668</v>
+        <v>1.717927968054224</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.355453472075483</v>
+        <v>1.422494213581911</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.383314608539468</v>
+        <v>1.662812692269791</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.432801067884194</v>
+        <v>1.336723474560828</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.328080560609932</v>
+        <v>1.474002775032609</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.540147212798156</v>
+        <v>1.685639468452316</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.300902367369339</v>
+        <v>1.691809612718795</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.281937409146865</v>
+        <v>1.79273214878991</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.384806322846481</v>
+        <v>1.640491047188639</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.478102646473205</v>
+        <v>1.572233870806075</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.302778473973444</v>
+        <v>1.593397492762507</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.369778163276855</v>
+        <v>1.67305065157338</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.443319546223427</v>
+        <v>1.442331610303298</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.596152073456243</v>
+        <v>1.567934056733643</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.591566334408931</v>
+        <v>1.557208650437164</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.300063433913769</v>
+        <v>1.703034423836601</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.600405064906852</v>
+        <v>1.714569694362769</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.469441542864783</v>
+        <v>1.580873687685975</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.473774017629393</v>
+        <v>1.469281082365008</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.251434343886031</v>
+        <v>1.447170003282847</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.491308000995547</v>
+        <v>1.344397461463247</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.441281010378048</v>
+        <v>1.544985293832459</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.466042314070283</v>
+        <v>1.436387767784393</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.538078017216334</v>
+        <v>1.582799060851401</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.129682538898521</v>
+        <v>1.354470612422364</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.582610379096758</v>
+        <v>1.094514174962663</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.495186252291517</v>
+        <v>1.590797857266691</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.528008843129216</v>
+        <v>1.694571392014086</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.427077447156991</v>
+        <v>1.220660860036948</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.705084709656414</v>
+        <v>1.492409332940119</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.299246654695331</v>
+        <v>1.694596934910905</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.364507517391276</v>
+        <v>1.615424350224284</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.742867679996644</v>
+        <v>1.547845483739421</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.466638804193872</v>
+        <v>1.521317353411546</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.176339771106808</v>
+        <v>1.81083687259209</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.472239380003467</v>
+        <v>1.419272085144393</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.631140884095456</v>
+        <v>1.594312085493232</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>1.680279467549995</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.652392572923564</v>
+        <v>1.674310869687032</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.456036780971081</v>
+        <v>1.533347588380939</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.499652549367661</v>
+        <v>1.444568469931392</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.500630951445618</v>
+        <v>1.515413305135188</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.280738248777414</v>
+        <v>1.611088335785769</v>
       </c>
     </row>
   </sheetData>
